--- a/server/IndiaToday_Chandigarh.xlsx
+++ b/server/IndiaToday_Chandigarh.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>Heading</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Body</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>Updated_Date</t>
   </si>
   <si>
     <t>URL</t>
@@ -36,7 +36,7 @@
 </t>
   </si>
   <si>
-    <t>india</t>
+    <t>UPDATED: Sep 30, 2023 18:55 IST</t>
   </si>
   <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/video-auto-driver-accident-doctor-on-cycle-killed-chandigarh-2442747-2023-09-30</t>
@@ -47,6 +47,9 @@
   <si>
     <t xml:space="preserve">The Chandigarh-Shimla highway remained blocked for the second consecutive day on Thursday, even as operations are underway to clear the blockage caused by a massive landslide a day ago. The authorities estimate that it will take at least two more days to restore normal traffic flow on the road.Authorities have called for heavy earth movers and other machinery to clear the highway. The 100 metre stretch of the highway near Chhaki Moad, Parwanoo, caved in on Wednesday, halting traffic on both sides.For now, the traffic has been diverted via Kasauli on a narrow link road, leading to heavy traffic jams. The Solan district administration has meanwhile advised motorists to avoid the highway.The disruption in vehicular movement has affected NH5, also known as Kalka-Shimla NH, which is blocked since early Tuesday morning. To accommodate the diverted traffic, the administration has redirected it along a narrow link road connecting Dharampur and Parwanoo via Kasauli.ALSO READ | Shimla-Chandigarh national highway blocked after landslideAs a precautionary measure, the movement of heavy vehicles has been stopped due to the narrowness of the alternate route available. Vehicles commuting between Chandigarh and Shimla take up to eight hours, a significant increase from the usual four-hour drive, due to traffic diversions.The road blockage has also caused traffic congestion on the Kasauli road, with numerous apple-laden trucks stranded in various locations. The Chandigarh-Manali National Highway, which passes through Six Mile near Mandi, has also been blocked since Wednesday.The recent heavy rains and landslides have caused damage to over 1400 roads so far, including national highways in the state. The estimated loss due to these incidents amounts to Rs 8000 Cr. About 194 people have lost their lives in rain-related incidents, including 53 flash floods and over 76 landslides.ALSO READ | Multiple cars collide on Bathinda-Chandigarh highway, 7 injuredPublished By: Aishwarya DakhorePublished On: Aug 4, 2023
 </t>
+  </si>
+  <si>
+    <t>UPDATED: Aug 4, 2023 02:04 IST</t>
   </si>
   <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/massive-landslide-on-chandigarh-shimla-highway-blocks-traffic-causes-heavy-jams-2416033-2023-08-04</t>
@@ -60,6 +63,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Jul 19, 2023 12:06 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/punjab-chandigarh-news-free-tomatoes-five-autorickshaw-rides-2408616-2023-07-19</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Jul 18, 2023 22:59 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/punjab-governor-says-recent-assembly-session-breached-law-bills-passed-illegaly-2408284-2023-07-18</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Jul 12, 2023 12:49 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/rains-continue-to-wreck-havoc-as-death-toll-mounts-to-15-in-punjab-haryana-2405366-2023-07-12</t>
   </si>
   <si>
@@ -90,6 +102,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Jul 8, 2023 21:04 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/woman-inflicted-to-third-degree-torture-by-sho-two-cops-in-punjabs-gurdaspur-2403829-2023-07-08</t>
   </si>
   <si>
@@ -98,6 +113,9 @@
   <si>
     <t xml:space="preserve">Former Punjab Assembly deputy speaker Bir Devinder Singh died here on Friday following a brief illness.The 73-year-old Singh passed away at the Post Graduate Institute of Medical Education and Research here.Singh was elected MLA for the first time from Sirhind in 1980 on a Congress ticket. He again became the legislator after winning election from the Kharar assembly constituency in 2002.He served as the deputy speaker of the Punjab Assembly between 2003 and 2004 during the Amarinder Singh-led regime in Punjab. Singh was expelled from the Congress in 2016 and joined the Shiromani Akali Dal (Taksali) in 2019.  Various political leaders expressed grief over the death of Singh.ALSO READ | Outreach programs held in Punjab after 700 students forged papers to enter CanadaCondoling his demise, Punjab Chief Minister Bhagwant Mann said in a tweet, “Sad to hear about the passing away of Bir Devinder Singh Ji, the wise leader of Punjab".Punjab Congress chief Amrinder Singh Raja Warring also condoled Singh's death."Deeply saddened to hear about the passing away of former deputy speaker S Bir Devinder Singh ji. He was renowned for his deep knowledge about Punjab, his humility &amp; selfless service. I extend my deepest condolences to the bereaved family members. May Waheguru rest the departed soul in peace,” said Warring in a tweet.ASO READ | Punjab CM in confrontation mode | Mann on the warpathPublished By: Aishwarya DakhorePublished On: Jun 30, 2023--- ENDS ---
 </t>
+  </si>
+  <si>
+    <t>UPDATED: Jun 30, 2023 16:19 IST</t>
   </si>
   <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/former-deputy-speaker-of-punjab-assembly-bir-devinder-singh-passes-away-2400179-2023-06-30</t>
@@ -112,6 +130,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Jun 10, 2023 04:41 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/chandigarh-gets-its-first-rupee-store-where-items-are-sold-at-re-1-2391145-2023-06-10</t>
   </si>
   <si>
@@ -123,6 +144,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Feb 16, 2023 15:59 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/vegetable-prices-plunge-in-chandigarh-due-to-dry-weather-2335586-2023-02-16</t>
   </si>
   <si>
@@ -133,6 +157,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Feb 9, 2023 23:35 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/protesters-snatched-teargas-handgun-ammo-tried-to-kill-policemen-chandigarh-police-fir-2332793-2023-02-09</t>
   </si>
   <si>
@@ -141,6 +168,9 @@
   <si>
     <t xml:space="preserve">After two days of light rain, Chandigarh has recorded a slight rise in temperature, bringing relief from the cold weather. The minimum temperature was hovering at 11.6 degrees Celsius on Wednesday.Meanwhile, it is expected to rise to 12 degrees Celsius today. The maximum temperature was 19.3 degrees Celsius on Wednesday.The meteorological department has predicted partly cloudy skies in the coming days with light rainfall.As per the city's seven-day weather prediction, a partly cloudy sky is expected on Thursday, while light rain is expected on January 29.The maximum temperature is likely to rise to 22 degrees Celsius on February 1.TRAFFIC POLICE ADVISORYWhile no fog has been seen in the city in the last two days and, as per the forecast, the traffic police have advised commuters to use reflective tape while driving.Traffic police on highways have advised commuters to use fog lights and low beam lights for safe driving during fog and rainy weather.Commuters are requested not to park their vehicles on the highways during fog as it could cause accidents.Published By: Shruti NirajPublished On: Jan 26, 2023--- ENDS ---ALSO READ |  Delhi sees season’s best air quality, cloudy conditions likely today 
 </t>
+  </si>
+  <si>
+    <t>UPDATED: Jan 26, 2023 17:15 IST</t>
   </si>
   <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/mercury-level-rises-in-chandigarh-after-light-rain-for-two-days-more-rainfall-in-store-2326791-2023-01-26</t>
@@ -154,6 +184,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Jan 23, 2023 16:21 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/man-held-for-stealing-pick-up-jeep-laden-with-goods-in-chandigarh-2325275-2023-01-23</t>
   </si>
   <si>
@@ -165,6 +198,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Jan 16, 2023 20:34 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/chandigarh-girl-ran-over-by-car-feeding-stray-dog-incident-caught-on-cctv-2322124-2023-01-16</t>
   </si>
   <si>
@@ -175,6 +211,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Jan 16, 2023 12:11 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/imd-orange-alert-chandigarh-severe-chill-cold-dense-fog-in-city-details-here-2322089-2023-01-16</t>
   </si>
   <si>
@@ -183,6 +222,9 @@
   <si>
     <t xml:space="preserve">The Punjab government has made some amendments to the state transport scheme and now only state-owned buses will be allowed to enter Chandigarh. As per the reports, this decision has been taken to end the “monopoly of private buses owned by the Badal family” and the private bus mafia.With the new amendments, only buses owned by state transport undertakings can enter Chandigarh. At present, private AC buses also pick up passengers from the Chandigarh bus stand.As per the reports by PTI, an official statement read,"Taking another important decision to root out the private bus mafia from the state, Chief Minister Bhagwant Mann-led Punjab government has ended the monopoly of private buses owned by the Badal family and other private bus mafias on the inter-state routes."ALSO READ | 4 members of inter-state gang held for stealing mobile phones in MumbaiPUNJAB TRANSPORT SCHEME 2018Talking about the Punjab Transport Scheme – 2018, Transport Minister Laljit Singh Bhullar said that the old scheme was formulated by the previous Congress government to give benefits to the Badal family and other private bus mafias."The Badal (Parkash Singh Badal) family, during its government’s two tenures from 2007 to 2017, created various schemes to fulfill their personal interests, in which the Congress government also helped the Badals with running their transport businesses smoothly, including one for inter-state movement of their AC buses to Chandigarh,” he alleged.ALSO READ | Gurugram couple booked for sexually exploiting 2 adopted childrenNEW SCHEMEA new scheme named Punjab Transport (Amendment) Scheme – 2022 has now been formed which will allow only state-owned buses to enter Chandigarh.He said, "With the seating capacity of 39 or more and the further condition that air-conditioned stage carriages shall be run only by the state transport undertakings onlyâ€æ"Bhullar said the Bhagwant Mann-led government would no longer allow them to “fulfill the vested interests of the Badals and their powerful associates for the sake of the state exchequer”.Published By: Shruti NirajPublished On: Dec 14, 2022--- ENDS ---ALSO READ |  Section 144 imposed in Lucknow till Jan 10 ahead of upcoming festivals, relaxation on Christmas, New Year
 </t>
+  </si>
+  <si>
+    <t>UPDATED: Dec 14, 2022 13:25 IST</t>
   </si>
   <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/chandigarh-news-only-state-owned-buses-to-enter-city-punjab-govt-puts-brakes-on-private-buses-2309024-2022-12-14</t>
@@ -194,6 +236,9 @@
     <t xml:space="preserve">With winter almost here, the air quality in Chandigarh dipped to the 'very poor' category on Thursday morning. The city recorded low visibility due to the presence of smog.The AIR Quality Index (AQI) in different parts of the city crossed the 340 mark on Thursday.AQI IN CHANDIGARH As per the report by the Central Pollution Control Board (CPCB), the AQI was 348 in sector 53, while the air quality level slipped to 315 and 312 in sectors 25 and 22, respectively.LOW VISIBILITYThe presence of the heavy pollutant particulate matter (PM) 2.5 was also recorded. Due to this, the visibility was lower than 2 km in Chandigarh on Wednesday. According to reports, the visibility in Chandigarh used to be between 4,000 to 5,000 metres during this time of the year.Because of the 'very poor' air quality, the health of the residents is at a risk. Many are complaining about respiratory illness, difficulty with breathing and more.
 Published By: Shruti NirajPublished On: Nov 10, 2022--- ENDS ---ALSO READ |  Are high-rises in Gurugram quake ready? All you need to know
 </t>
+  </si>
+  <si>
+    <t>UPDATED: Nov 10, 2022 13:20 IST</t>
   </si>
   <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/chandigarh-air-quality-aqi-dips-to-very-poor-category-visibility-worsens-2295613-2022-11-10</t>
@@ -234,6 +279,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Nov 3, 2022 15:59 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/zero-waste-event-in-chandigarh-eco-friendly-wedding-in-city-pic-here-2292889-2022-11-03</t>
   </si>
   <si>
@@ -244,6 +292,9 @@
 </t>
   </si>
   <si>
+    <t>UPDATED: Nov 2, 2022 13:03 IST</t>
+  </si>
+  <si>
     <t>https://www.indiatoday.in/cities/chandigarh/cities/chandigarh/story/indigo-starts-direct-flights-between-indore-and-chandigarh-2292337-2022-11-02</t>
   </si>
   <si>
@@ -251,6 +302,32 @@
   </si>
   <si>
     <t>https://www.indiatoday.in/cities/chandigarh/story/indigo-starts-direct-flights-between-indore-and-chandigarh-2292337-2022-11-02</t>
+  </si>
+  <si>
+    <t>Chandigarh airport adds two new flights to its winters schedule | Details here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two new flights to Goa and Indore have been added from Chandigarh's Shaheed Bhagat Singh International Airport (SBSI) for the winter schedule. The new flights will follow the winter schedule from October 31 to March 25, 2023. While this is the first flight to Indore, it's the second flight to Goa from Chandigarh. As per the new winter schedule released by SBSI, the new flight will depart at 6 am to Delhi and the last flight to Pune has been scheduled for 9.25 pm.Talking to Hindustan Times, the airport's chief executive officer Rakesh Ranjan said, "As operations at the newly built airport in Goa (Mopa) will commence on October 30, we will start another flight service to Goa the next day. Similarly, now residents will be able to fly to Goa directly." Nearly 11 flights will land in Chandigarh from Delhi during the winter schedule.Last month, Chandigarh international airport was renamed Shaheed Bhagat Singh International Airport. Published By: Shruti NirajPublished On: Oct 24, 2022--- ENDS ---READ MORE |  Air quality in Delhi inches closer to 'very poor' categoryREAD MORE |  This Diwali, Punjab sets a new record by lighting world's largest diya in Mohali
+</t>
+  </si>
+  <si>
+    <t>UPDATED: Oct 24, 2022 12:34 IST</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/cities/chandigarh/story/chandigarh-airport-adds-two-new-flights-goa-indore-to-its-winters-schedule-2288965-2022-10-24</t>
+  </si>
+  <si>
+    <t>This Diwali, Punjab sets a new record by lighting world's largest diya in Mohali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ringing in a unique and momentous celebration for Diwali, Hero Homes in Chandigarh’s Mohali made a new world record by lighting the world’s largest diya constructed in the premises of the housing complex.Manufactured with approximately 1,000kg steel, the world's largest diya measuring 3.37m in diameter was lit on Saturday to spread the message of world peace, secularism, and humanism.Over 10,000 citizens, including 4000 residents of Hero Homes, pooled in approximately 3,560 litres of organic oil to create this unique diya.On Saturday, the huge stainless-steel Diya was lit in the presence of official adjudicators of the Guinness Book of World Records, who were present at the society of Hero Homes at Mohali to record this feat. According to the Guinness Books of Records, the diya was prepared using 3,560 litres of cooking oil and qualifies as the world’s biggest diya ever lit.Lt Gen (retd.) K. J. Singh PVSM, AVSM, former GOC Western Command, lit the diya and said, “...It is only befitting that Punjab, which has seen the maximum strife over many decades, is now home to the biggest icon of peace”. Ashish Kaul, CMO Hero Realty said, “Diwali marks the restoration of peace and harmony. We at Hero Homes are elated to become the stage of an iconic event for global peace. We are thankful to the contributions from our residents and citizens of Punjab. The oil in the diya, collected from various individuals irrespective of language, religion, and other cultural creeds, represents the united resolve for peace and spirit of Indians.”With the largest diya ever lit, the glorious state of Punjab has added another feather to its crown this Diwali and proved to the world yet again that Punjab stands for justice, equality, and peace for everyone.Published By: Raajnandini MukherjeePublished On: Oct 22, 2022--- ENDS ---Also Read |  Ayodhya ready to set Deepotsav record for 6th year in a row with 16 lakh diyas on Diwali
+</t>
+  </si>
+  <si>
+    <t>UPDATED: Oct 22, 2022 20:33 IST</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/cities/chandigarh/story/this-diwali-punjab-sets-a-new-world-record-by-lighting-largest-diya-mohali-2288495-2022-10-22</t>
   </si>
 </sst>
 </file>
@@ -595,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,262 +714,290 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -917,6 +1022,8 @@
     <hyperlink ref="D19" r:id="rId18"/>
     <hyperlink ref="D20" r:id="rId19"/>
     <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
